--- a/static/game/伤害.xlsx
+++ b/static/game/伤害.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
   <si>
     <t>江山如画</t>
   </si>
@@ -124,6 +124,14 @@
   </si>
   <si>
     <t>18, 10, 18, 20, 10, 45</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>精灵的荣耀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>五彩石</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -584,7 +592,7 @@
   <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -611,8 +619,12 @@
       <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
+      <c r="F1" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>36</v>
+      </c>
       <c r="H1" s="5" t="s">
         <v>4</v>
       </c>
@@ -647,7 +659,9 @@
         <v>0</v>
       </c>
       <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
+      <c r="G2" s="7">
+        <v>75</v>
+      </c>
       <c r="H2" s="7">
         <v>50</v>
       </c>
@@ -682,7 +696,9 @@
         <v>21</v>
       </c>
       <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
+      <c r="G3" s="7">
+        <v>18</v>
+      </c>
       <c r="H3" s="8"/>
       <c r="I3" s="7">
         <v>22</v>
@@ -713,7 +729,9 @@
         <v>0</v>
       </c>
       <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
+      <c r="G4" s="7">
+        <v>35</v>
+      </c>
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
       <c r="J4" s="7">
@@ -743,7 +761,9 @@
       <c r="E5" s="7">
         <v>34</v>
       </c>
-      <c r="F5" s="7"/>
+      <c r="F5" s="7">
+        <v>24</v>
+      </c>
       <c r="G5" s="7"/>
       <c r="H5" s="7">
         <v>12</v>
@@ -776,8 +796,12 @@
       <c r="E6" s="7">
         <v>57</v>
       </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
+      <c r="F6" s="7">
+        <v>24</v>
+      </c>
+      <c r="G6" s="7">
+        <v>18</v>
+      </c>
       <c r="H6" s="7">
         <v>12</v>
       </c>
@@ -809,8 +833,12 @@
       <c r="E7" s="7">
         <v>25</v>
       </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
+      <c r="F7" s="7">
+        <v>25</v>
+      </c>
+      <c r="G7" s="7">
+        <v>25</v>
+      </c>
       <c r="H7" s="7">
         <v>22</v>
       </c>
@@ -846,8 +874,12 @@
       <c r="E8" s="7">
         <v>30</v>
       </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
+      <c r="F8" s="7">
+        <v>60</v>
+      </c>
+      <c r="G8" s="7">
+        <v>18</v>
+      </c>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
       <c r="J8" s="7">
@@ -879,8 +911,12 @@
       <c r="E9" s="7">
         <v>0</v>
       </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
+      <c r="F9" s="7">
+        <v>45</v>
+      </c>
+      <c r="G9" s="7">
+        <v>17</v>
+      </c>
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
       <c r="J9" s="7">
@@ -912,8 +948,12 @@
       <c r="E10" s="7">
         <v>20</v>
       </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
+      <c r="F10" s="7">
+        <v>23</v>
+      </c>
+      <c r="G10" s="7">
+        <v>17</v>
+      </c>
       <c r="H10" s="9" t="s">
         <v>20</v>
       </c>
@@ -949,7 +989,9 @@
       <c r="E11" s="7">
         <v>22</v>
       </c>
-      <c r="F11" s="7"/>
+      <c r="F11" s="7">
+        <v>6</v>
+      </c>
       <c r="G11" s="7"/>
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
@@ -974,7 +1016,9 @@
       <c r="E12" s="7">
         <v>26</v>
       </c>
-      <c r="F12" s="7"/>
+      <c r="F12" s="7">
+        <v>9</v>
+      </c>
       <c r="G12" s="7"/>
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
@@ -999,7 +1043,9 @@
       <c r="E13" s="7">
         <v>33</v>
       </c>
-      <c r="F13" s="7"/>
+      <c r="F13" s="7">
+        <v>10</v>
+      </c>
       <c r="G13" s="7"/>
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
